--- a/result.xlsx
+++ b/result.xlsx
@@ -439,13 +439,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,7 +466,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
@@ -481,7 +481,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -491,11 +491,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="28661948"/>
-        <c:axId val="54507039"/>
+        <c:axId val="97760108"/>
+        <c:axId val="96935492"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="28661948"/>
+        <c:axId val="97760108"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -551,12 +551,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54507039"/>
+        <c:crossAx val="96935492"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54507039"/>
+        <c:axId val="96935492"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,7 +612,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28661948"/>
+        <c:crossAx val="97760108"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -949,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,7 +1012,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1</v>
